--- a/Code/Results/Cases/Case_000/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_000/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,34 +412,43 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591706026</v>
+        <v>3.457262170408114</v>
       </c>
       <c r="C2">
-        <v>1.104745911582114</v>
+        <v>1.007702210159749</v>
       </c>
       <c r="D2">
-        <v>0.3278482989887834</v>
+        <v>0.3492156199739753</v>
       </c>
       <c r="E2">
-        <v>1.498654169906246</v>
+        <v>1.343180230842549</v>
       </c>
       <c r="F2">
-        <v>6.635873520255586</v>
+        <v>6.463794665469408</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231748271</v>
+        <v>0.0007918837209575825</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009995295743606542</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002670933310910506</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,34 +465,43 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289337</v>
+        <v>2.997853015548287</v>
       </c>
       <c r="C3">
-        <v>0.9385230912516533</v>
+        <v>0.8698536932251386</v>
       </c>
       <c r="D3">
-        <v>0.2856247266612826</v>
+        <v>0.3064966316515836</v>
       </c>
       <c r="E3">
-        <v>1.266429032206716</v>
+        <v>1.155751310872972</v>
       </c>
       <c r="F3">
-        <v>5.740628530079675</v>
+        <v>5.654258087503734</v>
       </c>
       <c r="G3">
-        <v>0.0007578030578936477</v>
+        <v>0.0007995267262437935</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005661321054590829</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006838291907338423</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -500,34 +518,43 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156863</v>
+        <v>2.717878933285249</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115297</v>
+        <v>0.7870470786521082</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726171</v>
+        <v>0.2802437474732926</v>
       </c>
       <c r="E4">
-        <v>1.130126361199359</v>
+        <v>1.042418103719996</v>
       </c>
       <c r="F4">
-        <v>5.211660616999438</v>
+        <v>5.159655295851394</v>
       </c>
       <c r="G4">
-        <v>0.0007665192321234379</v>
+        <v>0.0008043286331566338</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003562661497807262</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004342247631172746</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -544,34 +571,43 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569719</v>
+        <v>2.604150420224471</v>
       </c>
       <c r="C5">
-        <v>0.800873799841753</v>
+        <v>0.7552167163808008</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613388</v>
+        <v>0.2683125171911058</v>
       </c>
       <c r="E5">
-        <v>1.075863128695502</v>
+        <v>0.9965441341778103</v>
       </c>
       <c r="F5">
-        <v>5.00042711176323</v>
+        <v>4.944718871251354</v>
       </c>
       <c r="G5">
-        <v>0.0007700955536178398</v>
+        <v>0.0008063365972173219</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002831099223265632</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000622890165944856</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -588,34 +624,43 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79209413057356</v>
+        <v>2.585207879043764</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7518079961090507</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691243</v>
+        <v>0.2648516623235793</v>
       </c>
       <c r="E6">
-        <v>1.06692236783033</v>
+        <v>0.9888719871437246</v>
       </c>
       <c r="F6">
-        <v>4.965589858726503</v>
+        <v>4.892255946361217</v>
       </c>
       <c r="G6">
-        <v>0.0007706910879994282</v>
+        <v>0.0008066988389828537</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002711539273275942</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007586302126281197</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -632,34 +677,43 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991802958</v>
+        <v>2.716100113317339</v>
       </c>
       <c r="C7">
-        <v>0.8396532948890183</v>
+        <v>0.7916813407237555</v>
       </c>
       <c r="D7">
-        <v>0.2606352797068183</v>
+        <v>0.2760110113270571</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.041580167724149</v>
       </c>
       <c r="F7">
-        <v>5.2087954061559</v>
+        <v>5.110605349627804</v>
       </c>
       <c r="G7">
-        <v>0.0007665673550339016</v>
+        <v>0.0008044293529388741</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003534826954441961</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006621355425489028</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -676,34 +730,43 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.667541012287586</v>
+        <v>3.297930760598263</v>
       </c>
       <c r="C8">
-        <v>1.046543339691681</v>
+        <v>0.9664754913104616</v>
       </c>
       <c r="D8">
-        <v>0.3130363585851654</v>
+        <v>0.3289524093290908</v>
       </c>
       <c r="E8">
-        <v>1.417080811465283</v>
+        <v>1.277802295241287</v>
       </c>
       <c r="F8">
-        <v>6.322315476670241</v>
+        <v>6.121670233424538</v>
       </c>
       <c r="G8">
-        <v>0.0007485629913020318</v>
+        <v>0.0007945947569954545</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.008340232030346673</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001998973942720639</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -720,34 +783,43 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611238</v>
+        <v>4.461276162754359</v>
       </c>
       <c r="C9">
-        <v>1.491766529191182</v>
+        <v>1.317628976875426</v>
       </c>
       <c r="D9">
-        <v>0.4269393464068401</v>
+        <v>0.4409129175473794</v>
       </c>
       <c r="E9">
-        <v>2.048269869642965</v>
+        <v>1.758791490145626</v>
       </c>
       <c r="F9">
-        <v>8.719465186564662</v>
+        <v>8.221729476999769</v>
       </c>
       <c r="G9">
-        <v>0.0007133136490371082</v>
+        <v>0.0007759650059114491</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02293966575964479</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01318788530000869</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -764,34 +836,43 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928514</v>
+        <v>5.332556541617578</v>
       </c>
       <c r="C10">
-        <v>1.861408775469386</v>
+        <v>1.589096750276781</v>
       </c>
       <c r="D10">
-        <v>0.5222620816063852</v>
+        <v>0.5003877811188886</v>
       </c>
       <c r="E10">
-        <v>2.58535190610182</v>
+        <v>2.021280822810567</v>
       </c>
       <c r="F10">
-        <v>10.70012950174964</v>
+        <v>9.529403428559903</v>
       </c>
       <c r="G10">
-        <v>0.0006866164721669267</v>
+        <v>0.0007632755019231475</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03654587955949484</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02786243332337612</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -808,34 +889,43 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.084470990766306</v>
+        <v>5.696287717332211</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>1.689296293144764</v>
       </c>
       <c r="D11">
-        <v>0.5697417279158685</v>
+        <v>0.347553439694579</v>
       </c>
       <c r="E11">
-        <v>2.856771504377107</v>
+        <v>1.319623735495014</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>7.984121445528018</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843834092</v>
+        <v>0.0007625219119831434</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05102710592009529</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02986244529822191</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -852,34 +942,43 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152714403</v>
+        <v>5.821453138132654</v>
       </c>
       <c r="C12">
-        <v>2.117427780801165</v>
+        <v>1.710819058990865</v>
       </c>
       <c r="D12">
-        <v>0.5885073197272561</v>
+        <v>0.2378295168971647</v>
       </c>
       <c r="E12">
-        <v>2.964870090642847</v>
+        <v>0.8095450099341974</v>
       </c>
       <c r="F12">
-        <v>12.06264309303941</v>
+        <v>6.621540193137179</v>
       </c>
       <c r="G12">
-        <v>0.0006691567473017781</v>
+        <v>0.0007639042151300181</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08537059510607037</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02834500312360522</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -896,34 +995,43 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881013</v>
+        <v>5.769062860697147</v>
       </c>
       <c r="C13">
-        <v>2.101670983166855</v>
+        <v>1.681431827745541</v>
       </c>
       <c r="D13">
-        <v>0.5844269630629526</v>
+        <v>0.1489218976300535</v>
       </c>
       <c r="E13">
-        <v>2.941323476956157</v>
+        <v>0.4192333535296342</v>
       </c>
       <c r="F13">
-        <v>11.97905445325642</v>
+        <v>5.257492853800642</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212977999</v>
+        <v>0.0007670939993306929</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1363447470366452</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02441139653020041</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -940,34 +1048,43 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758335769</v>
+        <v>5.653258874752851</v>
       </c>
       <c r="C14">
-        <v>2.050848538597108</v>
+        <v>1.640501665964791</v>
       </c>
       <c r="D14">
-        <v>0.5712684574921525</v>
+        <v>0.09914364752204108</v>
       </c>
       <c r="E14">
-        <v>2.865547999806012</v>
+        <v>0.2200208786317717</v>
       </c>
       <c r="F14">
-        <v>11.70919345391189</v>
+        <v>4.320288365004387</v>
       </c>
       <c r="G14">
-        <v>0.0006736252980051558</v>
+        <v>0.0007700778532949523</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1824133987288974</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02096641771582242</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -984,34 +1101,43 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.000748072547253</v>
+        <v>5.587027398541977</v>
       </c>
       <c r="C15">
-        <v>2.020133084844588</v>
+        <v>1.621696695691753</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194765</v>
+        <v>0.0879047863727962</v>
       </c>
       <c r="E15">
-        <v>2.81987799452429</v>
+        <v>0.180148105521571</v>
       </c>
       <c r="F15">
-        <v>11.5459164336616</v>
+        <v>4.065077586257104</v>
       </c>
       <c r="G15">
-        <v>0.0006757033355527343</v>
+        <v>0.0007712711081115931</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1938160907106692</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01972158660869194</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1028,34 +1154,43 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.42422365465427</v>
+        <v>5.22408501755956</v>
       </c>
       <c r="C16">
-        <v>1.849782383922275</v>
+        <v>1.516492032032261</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.0852656642304197</v>
       </c>
       <c r="E16">
-        <v>2.568268379124845</v>
+        <v>0.1700411051113129</v>
       </c>
       <c r="F16">
-        <v>10.6380499806441</v>
+        <v>3.828971836814731</v>
       </c>
       <c r="G16">
-        <v>0.000687427829652048</v>
+        <v>0.00077591099245805</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1772398316279151</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01491254195539238</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1072,34 +1207,43 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651449</v>
+        <v>5.007352928785792</v>
       </c>
       <c r="C17">
-        <v>1.749679255050523</v>
+        <v>1.457340512143901</v>
       </c>
       <c r="D17">
-        <v>0.4933995490308121</v>
+        <v>0.1063005318636385</v>
       </c>
       <c r="E17">
-        <v>2.421703187807381</v>
+        <v>0.252742630602242</v>
       </c>
       <c r="F17">
-        <v>10.10289414216473</v>
+        <v>4.119620197415799</v>
       </c>
       <c r="G17">
-        <v>0.0006944852372362024</v>
+        <v>0.0007779609381861155</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1380845818780614</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01298819220137748</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1116,34 +1260,43 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670806</v>
+        <v>4.891181072940185</v>
       </c>
       <c r="C18">
-        <v>1.693493160133983</v>
+        <v>1.426784906722276</v>
       </c>
       <c r="D18">
-        <v>0.4788997599788729</v>
+        <v>0.1630917184650258</v>
       </c>
       <c r="E18">
-        <v>2.339843746202718</v>
+        <v>0.488672800946965</v>
       </c>
       <c r="F18">
-        <v>9.802041018714277</v>
+        <v>4.989782952391067</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257353326</v>
+        <v>0.0007777175350125406</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08624958060439525</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01286102734497163</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1160,34 +1313,43 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562120913</v>
+        <v>4.865410637195282</v>
       </c>
       <c r="C19">
-        <v>1.674689419313097</v>
+        <v>1.433989826580785</v>
       </c>
       <c r="D19">
-        <v>0.4740495448538127</v>
+        <v>0.2585924094821479</v>
       </c>
       <c r="E19">
-        <v>2.312511968272247</v>
+        <v>0.9316599478342198</v>
       </c>
       <c r="F19">
-        <v>9.701283292199093</v>
+        <v>6.311405617291314</v>
       </c>
       <c r="G19">
-        <v>0.0006998598193207507</v>
+        <v>0.00077534719426674</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0448660748203622</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01491509726222251</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1204,34 +1366,43 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428521</v>
+        <v>5.100185226392171</v>
       </c>
       <c r="C20">
-        <v>1.760186838715242</v>
+        <v>1.532472938516719</v>
       </c>
       <c r="D20">
-        <v>0.4961123540600454</v>
+        <v>0.4702190910752648</v>
       </c>
       <c r="E20">
-        <v>2.437044104630701</v>
+        <v>1.94576964060964</v>
       </c>
       <c r="F20">
-        <v>10.15912097007683</v>
+        <v>9.02032724470277</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734164936</v>
+        <v>0.0007668416120413</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03244554102604802</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02379408360538093</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1248,34 +1419,43 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364978</v>
+        <v>5.784892976581887</v>
       </c>
       <c r="C21">
-        <v>2.065688090290735</v>
+        <v>1.750257957265262</v>
       </c>
       <c r="D21">
-        <v>0.5751101848299811</v>
+        <v>0.5534414014091169</v>
       </c>
       <c r="E21">
-        <v>2.88764648423529</v>
+        <v>2.318371252717725</v>
       </c>
       <c r="F21">
-        <v>11.78802886964701</v>
+        <v>10.45960704905042</v>
       </c>
       <c r="G21">
-        <v>0.0006726251111948692</v>
+        <v>0.0007562013655781873</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0464444912688613</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03888522512550274</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1292,34 +1472,43 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886699313</v>
+        <v>6.23814305483512</v>
       </c>
       <c r="C22">
-        <v>2.283282165834521</v>
+        <v>1.888477988334841</v>
       </c>
       <c r="D22">
-        <v>0.6314726412723246</v>
+        <v>0.603497389174521</v>
       </c>
       <c r="E22">
-        <v>3.214297175114183</v>
+        <v>2.513470465521195</v>
       </c>
       <c r="F22">
-        <v>12.94011826465419</v>
+        <v>11.35561038052941</v>
       </c>
       <c r="G22">
-        <v>0.0006582287120910494</v>
+        <v>0.0007494717359117886</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05622256578947926</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05032041316133018</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1336,34 +1525,43 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901633</v>
+        <v>5.996341369731056</v>
       </c>
       <c r="C23">
-        <v>2.165170641705345</v>
+        <v>1.808243448853318</v>
       </c>
       <c r="D23">
-        <v>0.6008726161218192</v>
+        <v>0.5820632899851432</v>
       </c>
       <c r="E23">
-        <v>3.036372557752145</v>
+        <v>2.409407682906789</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>10.93547678253236</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291816169</v>
+        <v>0.0007529736296295841</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05097258498276069</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0439353990801683</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1380,34 +1578,43 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224261</v>
+        <v>5.093396454990284</v>
       </c>
       <c r="C24">
-        <v>1.755432162946363</v>
+        <v>1.522929633600086</v>
       </c>
       <c r="D24">
-        <v>0.4948847683156714</v>
+        <v>0.4940959604972761</v>
       </c>
       <c r="E24">
-        <v>2.430101090143225</v>
+        <v>2.024357664268038</v>
       </c>
       <c r="F24">
-        <v>10.13367983991679</v>
+        <v>9.282577626360506</v>
       </c>
       <c r="G24">
-        <v>0.0006940760913752295</v>
+        <v>0.0007664096615381597</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03328234609859848</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02388743652400738</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1424,34 +1631,43 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.768922536538696</v>
+        <v>4.142656613778001</v>
       </c>
       <c r="C25">
-        <v>1.365482018976422</v>
+        <v>1.229542174013716</v>
       </c>
       <c r="D25">
-        <v>0.3945066067681182</v>
+        <v>0.4026513398619613</v>
       </c>
       <c r="E25">
-        <v>1.867542477264138</v>
+        <v>1.625711697670141</v>
       </c>
       <c r="F25">
-        <v>8.040232194133864</v>
+        <v>7.560761790821033</v>
       </c>
       <c r="G25">
-        <v>0.0007229166984993143</v>
+        <v>0.0007810655890484902</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01826779157273828</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009293847328788019</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1466,6 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_000/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_000/res_line/pl_mw.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457262170408114</v>
+        <v>3.457262170408171</v>
       </c>
       <c r="C2">
-        <v>1.007702210159749</v>
+        <v>1.007702210158641</v>
       </c>
       <c r="D2">
-        <v>0.3492156199739753</v>
+        <v>0.3492156199738474</v>
       </c>
       <c r="E2">
-        <v>1.343180230842549</v>
+        <v>1.343180230842464</v>
       </c>
       <c r="F2">
-        <v>6.463794665469408</v>
+        <v>6.463794665469322</v>
       </c>
       <c r="G2">
-        <v>0.0007918837209575825</v>
+        <v>0.0007918837209675011</v>
       </c>
       <c r="H2">
-        <v>0.009995295743606542</v>
+        <v>0.009995295743722019</v>
       </c>
       <c r="I2">
-        <v>0.002670933310910506</v>
+        <v>0.002670933310996659</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997853015548287</v>
+        <v>2.997853015548628</v>
       </c>
       <c r="C3">
-        <v>0.8698536932251386</v>
+        <v>0.869853693225707</v>
       </c>
       <c r="D3">
-        <v>0.3064966316515836</v>
+        <v>0.3064966316520383</v>
       </c>
       <c r="E3">
-        <v>1.155751310872972</v>
+        <v>1.155751310872887</v>
       </c>
       <c r="F3">
-        <v>5.654258087503734</v>
+        <v>5.654258087503649</v>
       </c>
       <c r="G3">
-        <v>0.0007995267262437935</v>
+        <v>0.0007995267261627653</v>
       </c>
       <c r="H3">
-        <v>0.005661321054590829</v>
+        <v>0.00566132105441941</v>
       </c>
       <c r="I3">
-        <v>0.0006838291907338423</v>
+        <v>0.0006838291904367466</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717878933285249</v>
+        <v>2.717878933285135</v>
       </c>
       <c r="C4">
-        <v>0.7870470786521082</v>
+        <v>0.7870470786523356</v>
       </c>
       <c r="D4">
-        <v>0.2802437474732926</v>
+        <v>0.2802437474734631</v>
       </c>
       <c r="E4">
-        <v>1.042418103719996</v>
+        <v>1.042418103720038</v>
       </c>
       <c r="F4">
-        <v>5.159655295851394</v>
+        <v>5.159655295851422</v>
       </c>
       <c r="G4">
-        <v>0.0008043286331566338</v>
+        <v>0.00080432863316101</v>
       </c>
       <c r="H4">
-        <v>0.003562661497807262</v>
+        <v>0.003562661497822361</v>
       </c>
       <c r="I4">
-        <v>0.0004342247631172746</v>
+        <v>0.0004342247631967666</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604150420224471</v>
+        <v>2.604150420224698</v>
       </c>
       <c r="C5">
-        <v>0.7552167163808008</v>
+        <v>0.7552167163809997</v>
       </c>
       <c r="D5">
-        <v>0.2683125171911058</v>
+        <v>0.2683125171909211</v>
       </c>
       <c r="E5">
-        <v>0.9965441341778103</v>
+        <v>0.9965441341777392</v>
       </c>
       <c r="F5">
-        <v>4.944718871251354</v>
+        <v>4.944718871251297</v>
       </c>
       <c r="G5">
-        <v>0.0008063365972173219</v>
+        <v>0.0008063365970838446</v>
       </c>
       <c r="H5">
-        <v>0.002831099223265632</v>
+        <v>0.00283109922356406</v>
       </c>
       <c r="I5">
-        <v>0.000622890165944856</v>
+        <v>0.000622890166188661</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585207879043764</v>
+        <v>2.585207879043878</v>
       </c>
       <c r="C6">
-        <v>0.7518079961090507</v>
+        <v>0.7518079961090791</v>
       </c>
       <c r="D6">
-        <v>0.2648516623235793</v>
+        <v>0.2648516623235935</v>
       </c>
       <c r="E6">
-        <v>0.9888719871437246</v>
+        <v>0.9888719871438241</v>
       </c>
       <c r="F6">
-        <v>4.892255946361217</v>
+        <v>4.892255946361189</v>
       </c>
       <c r="G6">
-        <v>0.0008066988389828537</v>
+        <v>0.0008066988388415279</v>
       </c>
       <c r="H6">
-        <v>0.002711539273275942</v>
+        <v>0.002711539273524188</v>
       </c>
       <c r="I6">
-        <v>0.0007586302126281197</v>
+        <v>0.0007586302123687716</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716100113317339</v>
+        <v>2.716100113317282</v>
       </c>
       <c r="C7">
-        <v>0.7916813407237555</v>
+        <v>0.7916813407236987</v>
       </c>
       <c r="D7">
-        <v>0.2760110113270571</v>
+        <v>0.2760110113271139</v>
       </c>
       <c r="E7">
-        <v>1.041580167724149</v>
+        <v>1.041580167724106</v>
       </c>
       <c r="F7">
         <v>5.110605349627804</v>
       </c>
       <c r="G7">
-        <v>0.0008044293529388741</v>
+        <v>0.0008044293528601984</v>
       </c>
       <c r="H7">
-        <v>0.003534826954441961</v>
+        <v>0.00353482695453966</v>
       </c>
       <c r="I7">
-        <v>0.0006621355425489028</v>
+        <v>0.0006621355425160402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297930760598263</v>
+        <v>3.297930760598206</v>
       </c>
       <c r="C8">
-        <v>0.9664754913104616</v>
+        <v>0.9664754913100921</v>
       </c>
       <c r="D8">
-        <v>0.3289524093290908</v>
+        <v>0.3289524093292329</v>
       </c>
       <c r="E8">
-        <v>1.277802295241287</v>
+        <v>1.277802295241244</v>
       </c>
       <c r="F8">
-        <v>6.121670233424538</v>
+        <v>6.121670233424283</v>
       </c>
       <c r="G8">
-        <v>0.0007945947569954545</v>
+        <v>0.0007945947571169861</v>
       </c>
       <c r="H8">
-        <v>0.008340232030346673</v>
+        <v>0.00834023203055928</v>
       </c>
       <c r="I8">
-        <v>0.001998973942720639</v>
+        <v>0.001998973943032389</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.461276162754359</v>
+        <v>4.461276162754871</v>
       </c>
       <c r="C9">
-        <v>1.317628976875426</v>
+        <v>1.317628976875312</v>
       </c>
       <c r="D9">
-        <v>0.4409129175473794</v>
+        <v>0.4409129175473083</v>
       </c>
       <c r="E9">
-        <v>1.758791490145626</v>
+        <v>1.758791490145597</v>
       </c>
       <c r="F9">
-        <v>8.221729476999769</v>
+        <v>8.221729476999883</v>
       </c>
       <c r="G9">
-        <v>0.0007759650059114491</v>
+        <v>0.0007759650060087116</v>
       </c>
       <c r="H9">
-        <v>0.02293966575964479</v>
+        <v>0.02293966575955908</v>
       </c>
       <c r="I9">
-        <v>0.01318788530000869</v>
+        <v>0.01318788530029646</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -854,25 +854,25 @@
         <v>5.332556541617578</v>
       </c>
       <c r="C10">
-        <v>1.589096750276781</v>
+        <v>1.589096750276838</v>
       </c>
       <c r="D10">
-        <v>0.5003877811188886</v>
+        <v>0.5003877811189454</v>
       </c>
       <c r="E10">
-        <v>2.021280822810567</v>
+        <v>2.021280822810638</v>
       </c>
       <c r="F10">
-        <v>9.529403428559903</v>
+        <v>9.52940342855976</v>
       </c>
       <c r="G10">
-        <v>0.0007632755019231475</v>
+        <v>0.0007632755018147897</v>
       </c>
       <c r="H10">
-        <v>0.03654587955949484</v>
+        <v>0.03654587955837574</v>
       </c>
       <c r="I10">
-        <v>0.02786243332337612</v>
+        <v>0.02786243332301552</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.696287717332211</v>
+        <v>5.696287717332439</v>
       </c>
       <c r="C11">
-        <v>1.689296293144764</v>
+        <v>1.68929629314573</v>
       </c>
       <c r="D11">
-        <v>0.347553439694579</v>
+        <v>0.3475534396946358</v>
       </c>
       <c r="E11">
-        <v>1.319623735495014</v>
+        <v>1.319623735495057</v>
       </c>
       <c r="F11">
-        <v>7.984121445528018</v>
+        <v>7.984121445527933</v>
       </c>
       <c r="G11">
-        <v>0.0007625219119831434</v>
+        <v>0.0007625219121048961</v>
       </c>
       <c r="H11">
-        <v>0.05102710592009529</v>
+        <v>0.05102710592101189</v>
       </c>
       <c r="I11">
-        <v>0.02986244529822191</v>
+        <v>0.02986244529849014</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -960,25 +960,25 @@
         <v>5.821453138132654</v>
       </c>
       <c r="C12">
-        <v>1.710819058990865</v>
+        <v>1.71081905899149</v>
       </c>
       <c r="D12">
-        <v>0.2378295168971647</v>
+        <v>0.2378295168972926</v>
       </c>
       <c r="E12">
-        <v>0.8095450099341974</v>
+        <v>0.8095450099342685</v>
       </c>
       <c r="F12">
-        <v>6.621540193137179</v>
+        <v>6.621540193137264</v>
       </c>
       <c r="G12">
-        <v>0.0007639042151300181</v>
+        <v>0.0007639042150792652</v>
       </c>
       <c r="H12">
-        <v>0.08537059510607037</v>
+        <v>0.08537059510579326</v>
       </c>
       <c r="I12">
-        <v>0.02834500312360522</v>
+        <v>0.02834500312373667</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769062860697147</v>
+        <v>5.769062860697261</v>
       </c>
       <c r="C13">
         <v>1.681431827745541</v>
       </c>
       <c r="D13">
-        <v>0.1489218976300535</v>
+        <v>0.1489218976295632</v>
       </c>
       <c r="E13">
-        <v>0.4192333535296342</v>
+        <v>0.4192333535295205</v>
       </c>
       <c r="F13">
-        <v>5.257492853800642</v>
+        <v>5.257492853800528</v>
       </c>
       <c r="G13">
-        <v>0.0007670939993306929</v>
+        <v>0.0007670939994285801</v>
       </c>
       <c r="H13">
-        <v>0.1363447470366452</v>
+        <v>0.1363447470369579</v>
       </c>
       <c r="I13">
-        <v>0.02441139653020041</v>
+        <v>0.02441139653021018</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.653258874752851</v>
+        <v>5.653258874752623</v>
       </c>
       <c r="C14">
-        <v>1.640501665964791</v>
+        <v>1.640501665964337</v>
       </c>
       <c r="D14">
-        <v>0.09914364752204108</v>
+        <v>0.09914364752189897</v>
       </c>
       <c r="E14">
-        <v>0.2200208786317717</v>
+        <v>0.2200208786317432</v>
       </c>
       <c r="F14">
-        <v>4.320288365004387</v>
+        <v>4.320288365004302</v>
       </c>
       <c r="G14">
-        <v>0.0007700778532949523</v>
+        <v>0.0007700778533965794</v>
       </c>
       <c r="H14">
-        <v>0.1824133987288974</v>
+        <v>0.18241339872894</v>
       </c>
       <c r="I14">
-        <v>0.02096641771582242</v>
+        <v>0.02096641771609153</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1119,25 +1119,25 @@
         <v>5.587027398541977</v>
       </c>
       <c r="C15">
-        <v>1.621696695691753</v>
+        <v>1.621696695691526</v>
       </c>
       <c r="D15">
-        <v>0.0879047863727962</v>
+        <v>0.08790478637317278</v>
       </c>
       <c r="E15">
-        <v>0.180148105521571</v>
+        <v>0.180148105521539</v>
       </c>
       <c r="F15">
-        <v>4.065077586257104</v>
+        <v>4.065077586257132</v>
       </c>
       <c r="G15">
-        <v>0.0007712711081115931</v>
+        <v>0.0007712711082461959</v>
       </c>
       <c r="H15">
-        <v>0.1938160907106692</v>
+        <v>0.1938160907104987</v>
       </c>
       <c r="I15">
-        <v>0.01972158660869194</v>
+        <v>0.01972158660848322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.22408501755956</v>
+        <v>5.224085017559617</v>
       </c>
       <c r="C16">
-        <v>1.516492032032261</v>
+        <v>1.516492032032318</v>
       </c>
       <c r="D16">
-        <v>0.0852656642304197</v>
+        <v>0.08526566423042681</v>
       </c>
       <c r="E16">
-        <v>0.1700411051113129</v>
+        <v>0.1700411051112454</v>
       </c>
       <c r="F16">
-        <v>3.828971836814731</v>
+        <v>3.828971836814645</v>
       </c>
       <c r="G16">
-        <v>0.00077591099245805</v>
+        <v>0.00077591099244641</v>
       </c>
       <c r="H16">
-        <v>0.1772398316279151</v>
+        <v>0.1772398316277872</v>
       </c>
       <c r="I16">
-        <v>0.01491254195539238</v>
+        <v>0.01491254195543057</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1225,25 +1225,25 @@
         <v>5.007352928785792</v>
       </c>
       <c r="C17">
-        <v>1.457340512143901</v>
+        <v>1.457340512143503</v>
       </c>
       <c r="D17">
-        <v>0.1063005318636385</v>
+        <v>0.1063005318635462</v>
       </c>
       <c r="E17">
-        <v>0.252742630602242</v>
+        <v>0.2527426306022065</v>
       </c>
       <c r="F17">
-        <v>4.119620197415799</v>
+        <v>4.119620197415884</v>
       </c>
       <c r="G17">
-        <v>0.0007779609381861155</v>
+        <v>0.0007779609381707517</v>
       </c>
       <c r="H17">
-        <v>0.1380845818780614</v>
+        <v>0.1380845818779335</v>
       </c>
       <c r="I17">
-        <v>0.01298819220137748</v>
+        <v>0.01298819220147251</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.891181072940185</v>
+        <v>4.891181072940014</v>
       </c>
       <c r="C18">
-        <v>1.426784906722276</v>
+        <v>1.426784906721878</v>
       </c>
       <c r="D18">
-        <v>0.1630917184650258</v>
+        <v>0.1630917184647416</v>
       </c>
       <c r="E18">
         <v>0.488672800946965</v>
       </c>
       <c r="F18">
-        <v>4.989782952391067</v>
+        <v>4.989782952390868</v>
       </c>
       <c r="G18">
-        <v>0.0007777175350125406</v>
+        <v>0.0007777175351106891</v>
       </c>
       <c r="H18">
-        <v>0.08624958060439525</v>
+        <v>0.08624958060428156</v>
       </c>
       <c r="I18">
-        <v>0.01286102734497163</v>
+        <v>0.0128610273449894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1331,25 +1331,25 @@
         <v>4.865410637195282</v>
       </c>
       <c r="C19">
-        <v>1.433989826580785</v>
+        <v>1.433989826580387</v>
       </c>
       <c r="D19">
-        <v>0.2585924094821479</v>
+        <v>0.2585924094822332</v>
       </c>
       <c r="E19">
         <v>0.9316599478342198</v>
       </c>
       <c r="F19">
-        <v>6.311405617291314</v>
+        <v>6.311405617291229</v>
       </c>
       <c r="G19">
-        <v>0.00077534719426674</v>
+        <v>0.0007753471943131185</v>
       </c>
       <c r="H19">
-        <v>0.0448660748203622</v>
+        <v>0.04486607482094485</v>
       </c>
       <c r="I19">
-        <v>0.01491509726222251</v>
+        <v>0.01491509726212481</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.100185226392171</v>
+        <v>5.100185226391659</v>
       </c>
       <c r="C20">
-        <v>1.532472938516719</v>
+        <v>1.532472938516833</v>
       </c>
       <c r="D20">
-        <v>0.4702190910752648</v>
+        <v>0.4702190910753643</v>
       </c>
       <c r="E20">
-        <v>1.94576964060964</v>
+        <v>1.945769640609583</v>
       </c>
       <c r="F20">
-        <v>9.02032724470277</v>
+        <v>9.0203272447026</v>
       </c>
       <c r="G20">
-        <v>0.0007668416120413</v>
+        <v>0.0007668416119520997</v>
       </c>
       <c r="H20">
-        <v>0.03244554102604802</v>
+        <v>0.03244554102579755</v>
       </c>
       <c r="I20">
-        <v>0.02379408360538093</v>
+        <v>0.02379408360536761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.784892976581887</v>
+        <v>5.784892976581773</v>
       </c>
       <c r="C21">
-        <v>1.750257957265262</v>
+        <v>1.750257957264921</v>
       </c>
       <c r="D21">
-        <v>0.5534414014091169</v>
+        <v>0.5534414014092022</v>
       </c>
       <c r="E21">
-        <v>2.318371252717725</v>
+        <v>2.318371252717682</v>
       </c>
       <c r="F21">
-        <v>10.45960704905042</v>
+        <v>10.45960704905036</v>
       </c>
       <c r="G21">
-        <v>0.0007562013655781873</v>
+        <v>0.000756201365715177</v>
       </c>
       <c r="H21">
-        <v>0.0464444912688613</v>
+        <v>0.0464444912688986</v>
       </c>
       <c r="I21">
-        <v>0.03888522512550274</v>
+        <v>0.03888522512563775</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.23814305483512</v>
+        <v>6.238143054835405</v>
       </c>
       <c r="C22">
-        <v>1.888477988334841</v>
+        <v>1.888477988335353</v>
       </c>
       <c r="D22">
-        <v>0.603497389174521</v>
+        <v>0.6034973891750326</v>
       </c>
       <c r="E22">
-        <v>2.513470465521195</v>
+        <v>2.513470465521181</v>
       </c>
       <c r="F22">
-        <v>11.35561038052941</v>
+        <v>11.35561038052936</v>
       </c>
       <c r="G22">
-        <v>0.0007494717359117886</v>
+        <v>0.0007494717359220136</v>
       </c>
       <c r="H22">
-        <v>0.05622256578947926</v>
+        <v>0.05622256578920748</v>
       </c>
       <c r="I22">
-        <v>0.05032041316133018</v>
+        <v>0.05032041316143676</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996341369731056</v>
+        <v>5.996341369730999</v>
       </c>
       <c r="C23">
-        <v>1.808243448853318</v>
+        <v>1.808243448853432</v>
       </c>
       <c r="D23">
-        <v>0.5820632899851432</v>
+        <v>0.5820632899846885</v>
       </c>
       <c r="E23">
-        <v>2.409407682906789</v>
+        <v>2.409407682906746</v>
       </c>
       <c r="F23">
-        <v>10.93547678253236</v>
+        <v>10.93547678253219</v>
       </c>
       <c r="G23">
-        <v>0.0007529736296295841</v>
+        <v>0.0007529736297253577</v>
       </c>
       <c r="H23">
-        <v>0.05097258498276069</v>
+        <v>0.05097258498324031</v>
       </c>
       <c r="I23">
-        <v>0.0439353990801683</v>
+        <v>0.04393539907997379</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093396454990284</v>
+        <v>5.093396454990398</v>
       </c>
       <c r="C24">
-        <v>1.522929633600086</v>
+        <v>1.522929633599688</v>
       </c>
       <c r="D24">
-        <v>0.4940959604972761</v>
+        <v>0.494095960497134</v>
       </c>
       <c r="E24">
-        <v>2.024357664268038</v>
+        <v>2.024357664267967</v>
       </c>
       <c r="F24">
-        <v>9.282577626360506</v>
+        <v>9.282577626360364</v>
       </c>
       <c r="G24">
-        <v>0.0007664096615381597</v>
+        <v>0.0007664096614360714</v>
       </c>
       <c r="H24">
-        <v>0.03328234609859848</v>
+        <v>0.03328234609949288</v>
       </c>
       <c r="I24">
-        <v>0.02388743652400738</v>
+        <v>0.02388743652415215</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1649,25 +1649,25 @@
         <v>4.142656613778001</v>
       </c>
       <c r="C25">
-        <v>1.229542174013716</v>
+        <v>1.229542174013773</v>
       </c>
       <c r="D25">
         <v>0.4026513398619613</v>
       </c>
       <c r="E25">
-        <v>1.625711697670141</v>
+        <v>1.625711697670212</v>
       </c>
       <c r="F25">
-        <v>7.560761790821033</v>
+        <v>7.560761790821061</v>
       </c>
       <c r="G25">
-        <v>0.0007810655890484902</v>
+        <v>0.0007810655889403182</v>
       </c>
       <c r="H25">
-        <v>0.01826779157273828</v>
+        <v>0.01826779157226266</v>
       </c>
       <c r="I25">
-        <v>0.009293847328788019</v>
+        <v>0.009293847328576632</v>
       </c>
       <c r="J25">
         <v>0</v>
